--- a/public/sample/sample_sugi_batch.xlsx
+++ b/public/sample/sample_sugi_batch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sangmosoft/uhyun/work/bw/bluewolf/public/sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBBB61F-8B64-4E02-9390-C4102E6989C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483E7245-EC76-D74B-9C7B-1A955AC7427F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="5280" windowWidth="29040" windowHeight="15840" xr2:uid="{5F6014C5-3DA0-4F3B-B485-589BBB0F0B72}"/>
+    <workbookView xWindow="-68800" yWindow="-11840" windowWidth="34400" windowHeight="28300" xr2:uid="{5F6014C5-3DA0-4F3B-B485-589BBB0F0B72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,11 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
-  <si>
-    <t>주문일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>상품명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,8 +191,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">매장 주문번호 </t>
+    <t>상품번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F225UKK09BASK99</t>
+  </si>
+  <si>
+    <t>피엘라벤 칸켄 토트팩 미니 Kanken Totepack Mini (23711) - Sky Blue</t>
+  </si>
+  <si>
+    <t>Sky Blue^One Size</t>
+  </si>
+  <si>
+    <t>홍길동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gildong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울시 강남구 언주로 172길 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(고객 배송요청사항)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F225UKK01BAPI99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>택배업체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-09-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">주문일 </t>
     </r>
     <r>
       <rPr>
@@ -206,26 +243,17 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t>*</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(출고메세지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-09-14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -254,7 +282,89 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">처리됩니다.
-* </t>
+* 모든 주문내역은 하나의 주문건으로 취급되며, 다음의 항목들은 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>4행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>의 값으로 적용됩니다. 
+   - 주문일/배송비/추가배송비/결제방법/입금일자/입금자명/주문자 ID/주문자명/주문자 전화/주문자 휴대전화/수령자명/수령자 전화/수령자 휴대전화/수령 우편번호/수령 주소/수령 상세주소/배송메세지/택배사/송장번호/판매수수료율
+*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>『</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> *</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 』</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 는 필수입력항목입니다.
+*</t>
     </r>
     <r>
       <rPr>
@@ -266,7 +376,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>『매장 주문번호』</t>
+      <t xml:space="preserve"> 『결제방법』 </t>
     </r>
     <r>
       <rPr>
@@ -277,168 +387,9 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 가 같은 행은 하나의 주문건으로 취급되며, 다음의 항목들은 같은 주문건 내에서 가장 윗행의 값으로 적용됩니다. 
-   - 주문일/배송비/추가배송비/결제방법/입금일자/입금자명/주문자 ID/주문자명/주문자 전화/주문자 휴대전화/수령자명/수령자 전화/수령자 휴대전화/수령 우편번호/수령 주소/수령 상세주소/배송메세지/택배사/송장번호/판매수수료율
-*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>『</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> *</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 』</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 는 필수입력항목입니다.
-*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 『주문일』</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 빈값일 경우, 오늘날짜로 적용됩니다.
-*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 『결제방법』 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>- 1 : 현금 / 2 : 카드 / 빈값일 경우, 현금결제로 적용됩니다.
 * 4행부터의 예시를 삭제하고 입력해주세요.</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F225UKK09BASK99</t>
-  </si>
-  <si>
-    <t>피엘라벤 칸켄 토트팩 미니 Kanken Totepack Mini (23711) - Sky Blue</t>
-  </si>
-  <si>
-    <t>Sky Blue^One Size</t>
-  </si>
-  <si>
-    <t>홍길동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gildong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울시 강남구 언주로 172길 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(고객 배송요청사항)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F225UKK01BAPI99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피엘라벤 칸켄 오리지널 Kanken (23510) - Pink</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pink^One Size</t>
-  </si>
-  <si>
-    <t>서울시 강남구 언주로 172길 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>택배업체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-09-19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-09-20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,7 +397,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,8 +457,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -517,6 +484,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,11 +573,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -614,27 +608,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -953,341 +926,264 @@
   <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection sqref="A1:AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="60.625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="40.625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="8" style="8" customWidth="1"/>
-    <col min="8" max="10" width="10.625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="10.625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="12.625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="6" customWidth="1"/>
-    <col min="14" max="15" width="10.625" style="6" customWidth="1"/>
-    <col min="16" max="17" width="15.625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="10.625" style="6" customWidth="1"/>
-    <col min="19" max="21" width="15.625" style="6" customWidth="1"/>
-    <col min="22" max="22" width="30.625" style="7" customWidth="1"/>
-    <col min="23" max="23" width="15.625" style="7" customWidth="1"/>
-    <col min="24" max="24" width="30.625" style="7" customWidth="1"/>
-    <col min="25" max="25" width="15.625" style="6" customWidth="1"/>
-    <col min="26" max="26" width="17.625" style="6" customWidth="1"/>
-    <col min="27" max="27" width="30.625" style="7" customWidth="1"/>
-    <col min="28" max="28" width="17.625" style="12" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="2.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8" style="4" customWidth="1"/>
+    <col min="8" max="10" width="10.6640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="2" customWidth="1"/>
+    <col min="14" max="15" width="10.6640625" style="2" customWidth="1"/>
+    <col min="16" max="17" width="15.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" style="2" customWidth="1"/>
+    <col min="19" max="21" width="15.6640625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="30.6640625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="15.6640625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="30.6640625" style="3" customWidth="1"/>
+    <col min="25" max="25" width="15.6640625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="17.6640625" style="2" customWidth="1"/>
+    <col min="27" max="27" width="30.6640625" style="3" customWidth="1"/>
+    <col min="28" max="28" width="17.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="145.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:28" ht="145.5" customHeight="1" thickBot="1">
+      <c r="A1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="12"/>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="AB2" s="4"/>
+    </row>
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2">
+        <v>130970</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="5"/>
+      <c r="G4" s="4">
+        <v>3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>119000</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U4" s="2">
+        <v>12345</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="AB2" s="8"/>
+    <row r="5" spans="1:28">
+      <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="9">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+    <row r="6" spans="1:28">
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="G6" s="4">
         <v>1</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="W3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="X3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y3" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB3" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <v>12345</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="6">
-        <v>130970</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="8">
-        <v>3</v>
-      </c>
-      <c r="H4" s="8">
-        <v>119000</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6">
-        <v>1</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="U4" s="6">
-        <v>12345</v>
-      </c>
-      <c r="V4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>12345</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="6">
-        <v>130878</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="8">
-        <v>2</v>
-      </c>
-      <c r="H5" s="8">
-        <v>119000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>12346</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="6">
-        <v>130970</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8">
+      <c r="H6" s="4">
         <v>49000</v>
       </c>
-      <c r="I6" s="8">
-        <v>2500</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6">
-        <v>1</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="U6" s="6">
-        <v>12346</v>
-      </c>
-      <c r="V6" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="X6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB6" s="12">
-        <v>10</v>
-      </c>
+      <c r="V6" s="6"/>
+      <c r="X6" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/public/sample/sample_sugi_batch.xlsx
+++ b/public/sample/sample_sugi_batch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sangmosoft/uhyun/work/bw/bluewolf/public/sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483E7245-EC76-D74B-9C7B-1A955AC7427F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FB7033-8D4E-9448-8E3D-B53B0ECE335D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-68800" yWindow="-11840" windowWidth="34400" windowHeight="28300" xr2:uid="{5F6014C5-3DA0-4F3B-B485-589BBB0F0B72}"/>
+    <workbookView xWindow="-46180" yWindow="-10560" windowWidth="34400" windowHeight="28300" xr2:uid="{5F6014C5-3DA0-4F3B-B485-589BBB0F0B72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>상품명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,18 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>000-0000-0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00-000-0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000-00-00000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수령 우편번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,10 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대한통운택배</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>입금일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,40 +179,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F225UKK09BASK99</t>
-  </si>
-  <si>
     <t>피엘라벤 칸켄 토트팩 미니 Kanken Totepack Mini (23711) - Sky Blue</t>
   </si>
   <si>
     <t>Sky Blue^One Size</t>
   </si>
   <si>
-    <t>홍길동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gildong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울시 강남구 언주로 172길 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(고객 배송요청사항)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>F225UKK01BAPI99</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>택배업체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-09-20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -246,10 +207,6 @@
       </rPr>
       <t>*</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(출고메세지)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -281,31 +238,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">처리됩니다.
-* 모든 주문내역은 하나의 주문건으로 취급되며, 다음의 항목들은 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>4행</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>의 값으로 적용됩니다. 
-   - 주문일/배송비/추가배송비/결제방법/입금일자/입금자명/주문자 ID/주문자명/주문자 전화/주문자 휴대전화/수령자명/수령자 전화/수령자 휴대전화/수령 우편번호/수령 주소/수령 상세주소/배송메세지/택배사/송장번호/판매수수료율
+      <t>처리됩니다.
 *</t>
     </r>
     <r>
@@ -390,6 +323,30 @@
       <t>- 1 : 현금 / 2 : 카드 / 빈값일 경우, 현금결제로 적용됩니다.
 * 4행부터의 예시를 삭제하고 입력해주세요.</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F225UKK09BASK99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130970</t>
+  </si>
+  <si>
+    <t>130878</t>
+  </si>
+  <si>
+    <t>피엘라벤 칸켄 오리지널 Kanken (23510) - Pink</t>
+  </si>
+  <si>
+    <t>Pink^One Size</t>
+  </si>
+  <si>
+    <t>2023-09-15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,7 +354,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,14 +413,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
@@ -926,7 +875,7 @@
   <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:AB1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
@@ -955,9 +904,9 @@
     <col min="28" max="28" width="17.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="145.5" customHeight="1" thickBot="1">
+    <row r="1" spans="1:28" ht="95" customHeight="1" thickBot="1">
       <c r="A1" s="10" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -993,13 +942,13 @@
     <row r="3" spans="1:28" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
       <c r="A3" s="5"/>
       <c r="B3" s="8" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>0</v>
@@ -1020,13 +969,13 @@
         <v>10</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>3</v>
@@ -1050,19 +999,19 @@
         <v>9</v>
       </c>
       <c r="U3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="X3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="V3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="Y3" s="5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="Z3" s="5" t="s">
         <v>11</v>
@@ -1071,27 +1020,27 @@
         <v>12</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:28">
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="2">
-        <v>130970</v>
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="4">
-        <v>3</v>
+        <v>26</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="H4" s="4">
         <v>119000</v>
@@ -1105,76 +1054,58 @@
       <c r="K4" s="2">
         <v>1</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="U4" s="2">
-        <v>12345</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="V4" s="6"/>
       <c r="W4" s="6"/>
-      <c r="X4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB4" s="7">
-        <v>0</v>
-      </c>
+      <c r="X4" s="6"/>
+      <c r="AA4" s="6"/>
     </row>
     <row r="5" spans="1:28">
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>36</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="G5" s="9">
         <v>-1</v>
       </c>
       <c r="H5" s="9">
         <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:28">
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="G6" s="4">
         <v>1</v>
